--- a/elite-data/manifest-templates/EL_template_AssayScRNAseqTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayScRNAseqTemplate.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="163">
   <si>
     <t>Filename</t>
   </si>
@@ -464,7 +464,7 @@
     <t>l</t>
   </si>
   <si>
-    <t>sac-seq</t>
+    <t>Qiagen Rneasy Extraction Kit</t>
   </si>
   <si>
     <t>Metabolomics Workbench</t>
@@ -476,7 +476,7 @@
     <t>PCRfree</t>
   </si>
   <si>
-    <t>Smart-seq1</t>
+    <t>sac-seq</t>
   </si>
   <si>
     <t>MGnify</t>
@@ -488,7 +488,7 @@
     <t>polyAselection</t>
   </si>
   <si>
-    <t>Smart-seq2</t>
+    <t>Smart-seq1</t>
   </si>
   <si>
     <t>NCBI Gene</t>
@@ -500,10 +500,7 @@
     <t>proximity ligation</t>
   </si>
   <si>
-    <t>Smart-seq4</t>
-  </si>
-  <si>
-    <t>PRIDE</t>
+    <t>Smart-seq2</t>
   </si>
   <si>
     <t>mg/l</t>
@@ -512,10 +509,7 @@
     <t>rRNAdepletion</t>
   </si>
   <si>
-    <t>SMRTbell</t>
-  </si>
-  <si>
-    <t>SRA</t>
+    <t>Smart-seq4</t>
   </si>
   <si>
     <t>mg/ml</t>
@@ -524,10 +518,7 @@
     <t>snIsoSeq</t>
   </si>
   <si>
-    <t>TruSeq</t>
-  </si>
-  <si>
-    <t>UniProt</t>
+    <t>SMRTbell</t>
   </si>
   <si>
     <t>miu/ml</t>
@@ -536,7 +527,7 @@
     <t>SPLITseq</t>
   </si>
   <si>
-    <t>Ultralow Methyl-Seq</t>
+    <t>TruSeq</t>
   </si>
   <si>
     <t>ml</t>
@@ -545,10 +536,19 @@
     <t>STARRSeq</t>
   </si>
   <si>
+    <t>Ultralow Methyl-Seq</t>
+  </si>
+  <si>
+    <t>PRIDE</t>
+  </si>
+  <si>
     <t>mM</t>
   </si>
   <si>
     <t>SureCell</t>
+  </si>
+  <si>
+    <t>SRA</t>
   </si>
   <si>
     <t>MOI</t>
@@ -557,7 +557,13 @@
     <t>totalRNA</t>
   </si>
   <si>
+    <t>Synapse</t>
+  </si>
+  <si>
     <t>ng</t>
+  </si>
+  <si>
+    <t>UniProt</t>
   </si>
   <si>
     <t>ng/dl</t>
@@ -31048,6 +31054,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="N2:N1000">
       <formula1>Sheet2!$N$2:$N$56</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
+      <formula1>Sheet2!$H$2:$H$27</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$10</formula1>
     </dataValidation>
@@ -31057,12 +31066,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="Z2:Z1000">
       <formula1>Sheet2!$Z$2:$Z$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="T2:T1000">
-      <formula1>Sheet2!$T$2:$T$22</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
-      <formula1>Sheet2!$H$2:$H$21</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="V2:V1000">
       <formula1>Sheet2!$V$2:$V$3</formula1>
     </dataValidation>
@@ -31071,6 +31074,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
       <formula1>Sheet2!$J$2:$J$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="T2:T1000">
+      <formula1>Sheet2!$T$2:$T$23</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId2"/>
@@ -31516,66 +31522,78 @@
     </row>
     <row r="19">
       <c r="H19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="S19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="T19" s="6" t="s">
+    </row>
+    <row r="20">
+      <c r="H20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="H20" s="6" t="s">
+      <c r="S20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="S20" s="6" t="s">
+    </row>
+    <row r="21">
+      <c r="H21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="S21" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="H21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N21" s="6" t="s">
+    </row>
+    <row r="22">
+      <c r="H22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="T21" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22">
-      <c r="N22" s="6" t="s">
+    <row r="23">
+      <c r="H23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="N23" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="S23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T23" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23">
-      <c r="N23" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="S23" s="6" t="s">
+    <row r="24">
+      <c r="H24" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="24">
       <c r="N24" s="6" t="s">
         <v>129</v>
       </c>
@@ -31584,41 +31602,50 @@
       </c>
     </row>
     <row r="25">
+      <c r="H25" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="N25" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26">
-      <c r="N26" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="N27" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="N26" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="28">
       <c r="N28" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29">
       <c r="N29" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
       <c r="N30" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31">
       <c r="N31" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
@@ -31628,12 +31655,12 @@
     </row>
     <row r="33">
       <c r="N33" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34">
       <c r="N34" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35">
@@ -31643,107 +31670,107 @@
     </row>
     <row r="36">
       <c r="N36" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="N37" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38">
       <c r="N38" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
       <c r="N39" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40">
       <c r="N40" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41">
       <c r="N41" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="N42" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
       <c r="N43" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44">
       <c r="N44" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
       <c r="N45" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
       <c r="N46" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47">
       <c r="N47" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48">
       <c r="N48" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49">
       <c r="N49" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50">
       <c r="N50" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51">
       <c r="N51" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
       <c r="N52" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53">
       <c r="N53" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54">
       <c r="N54" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
       <c r="N55" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56">
       <c r="N56" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_AssayScRNAseqTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayScRNAseqTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -754,6 +754,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
